--- a/TestCasesForPrestaShop.xlsx
+++ b/TestCasesForPrestaShop.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A60EA16-10DD-4EAC-9DA2-590F6AF563D3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\PrestaShop-Manual-Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A5AEFB-CC8E-4BEB-84E5-200C97C179F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login Module" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,265 +36,280 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Scenario</t>
-  </si>
-  <si>
     <t>Test Steps</t>
   </si>
   <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>User Registration</t>
-  </si>
-  <si>
-    <t>Go to homepage → Click 'Sign in' → Fill registration form → Click 'Register'</t>
-  </si>
-  <si>
-    <t>User account is created and redirected to dashboard</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>Click 'Sign in' → Enter valid credentials → Click 'Sign in'</t>
-  </si>
-  <si>
-    <t>User is logged in and taken to account dashboard</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>Invalid Login</t>
-  </si>
-  <si>
-    <t>Click 'Sign in' → Enter invalid credentials → Click 'Sign in'</t>
-  </si>
-  <si>
-    <t>Error message displayed for invalid login</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>Product Search</t>
-  </si>
-  <si>
-    <t>Enter product in search bar → Click search</t>
-  </si>
-  <si>
-    <t>Relevant search results are displayed</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>Apply Filters</t>
-  </si>
-  <si>
-    <t>Select a category → Apply size/color filters</t>
-  </si>
-  <si>
-    <t>Filtered products match selected filters</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>View Product Details</t>
-  </si>
-  <si>
-    <t>Click on a product → View product description, price, availability</t>
-  </si>
-  <si>
-    <t>Product details are visible correctly</t>
-  </si>
-  <si>
-    <t>Tes</t>
-  </si>
-  <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>Add Product to Cart</t>
-  </si>
-  <si>
-    <t>Click 'Add to cart' from product page</t>
-  </si>
-  <si>
-    <t>Product is added to cart successfully</t>
-  </si>
-  <si>
-    <t>TC08</t>
-  </si>
-  <si>
-    <t>Update Quantity in Cart</t>
-  </si>
-  <si>
-    <t>Go to cart → Update item quantity → Click update</t>
-  </si>
-  <si>
-    <t>Quantity is updated and total price recalculates</t>
-  </si>
-  <si>
-    <t>TC09</t>
-  </si>
-  <si>
-    <t>Remove Item from Cart</t>
-  </si>
-  <si>
-    <t>Go to cart → Remove product → Confirm removal</t>
-  </si>
-  <si>
-    <t>Item is removed from cart and cart updates</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>Checkout as Guest</t>
-  </si>
-  <si>
-    <t>Add product to cart → Proceed to checkout → Continue as guest → Enter details → Place order</t>
-  </si>
-  <si>
-    <t>Order placed and confirmation page is displayed</t>
-  </si>
-  <si>
-    <t>TC11</t>
-  </si>
-  <si>
-    <t>Checkout as Registered User</t>
-  </si>
-  <si>
-    <t>Login → Add product to cart → Proceed to checkout → Place order</t>
-  </si>
-  <si>
-    <t>TC12</t>
-  </si>
-  <si>
-    <t>Newsletter Subscription</t>
-  </si>
-  <si>
-    <t>Enter email in newsletter → Click subscribe</t>
-  </si>
-  <si>
-    <t>Subscription success message appears</t>
-  </si>
-  <si>
-    <t>TC13</t>
-  </si>
-  <si>
-    <t>Contact Us Form</t>
-  </si>
-  <si>
-    <t>Click 'Contact us' → Fill form → Click 'Send'</t>
-  </si>
-  <si>
-    <t>Message sent confirmation is shown</t>
-  </si>
-  <si>
-    <t>TC14</t>
-  </si>
-  <si>
-    <t>UI Layout Check</t>
-  </si>
-  <si>
-    <t>Navigate across pages → Check alignment, layout, and visuals</t>
-  </si>
-  <si>
-    <t>All pages are properly aligned and readable</t>
-  </si>
-  <si>
-    <t>TC15</t>
-  </si>
-  <si>
-    <t>Cross-browser Testing</t>
-  </si>
-  <si>
-    <t>Open site in Chrome and Firefox → Compare layout and behavior</t>
-  </si>
-  <si>
-    <t>Site behaves consistently on both browsers</t>
-  </si>
-  <si>
-    <t>TC16</t>
-  </si>
-  <si>
-    <t>Error Message Validation</t>
-  </si>
-  <si>
-    <t>Submit empty login form → Observe validation messages</t>
-  </si>
-  <si>
-    <t>Proper validation messages are shown</t>
-  </si>
-  <si>
-    <t>TC17</t>
-  </si>
-  <si>
-    <t>Order Confirmation Page</t>
-  </si>
-  <si>
-    <t>Place order → Verify summary in confirmation page</t>
-  </si>
-  <si>
-    <t>Summary matches selected items and total</t>
-  </si>
-  <si>
-    <t>TC18</t>
-  </si>
-  <si>
-    <t>Reset Password</t>
-  </si>
-  <si>
-    <t>Click 'Forgot your password?' → Enter email → Submit</t>
-  </si>
-  <si>
-    <t>Reset password email is sent</t>
-  </si>
-  <si>
-    <t>TC19</t>
-  </si>
-  <si>
-    <t>Responsive Design Test</t>
-  </si>
-  <si>
-    <t>Resize browser window → Check layout responsiveness</t>
-  </si>
-  <si>
-    <t>Site content adjusts well to screen size</t>
-  </si>
-  <si>
-    <t>TC20</t>
-  </si>
-  <si>
-    <t>Logout Functionality</t>
-  </si>
-  <si>
-    <t>Login → Click 'Sign out' button</t>
-  </si>
-  <si>
-    <t>User is logged out and redirected to homepage</t>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Peconditions</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>Verify login with valid credentials</t>
+  </si>
+  <si>
+    <t>User is on the login page</t>
+  </si>
+  <si>
+    <t>1]Enter valid email
+2]Enter valid password
+3]Click"Sign In:</t>
+  </si>
+  <si>
+    <t>Email:test@gmail.com
+Password:PrestaShop@123</t>
+  </si>
+  <si>
+    <t>User should see homepage of website</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Verify login with invalid email credentials</t>
+  </si>
+  <si>
+    <t>Email:test1@gmail.com
+Password:PrestaShop@123</t>
+  </si>
+  <si>
+    <t>User should see error "Authentication failed"</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Verify login with invalid password credentials</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Email:
+Password:</t>
+  </si>
+  <si>
+    <t>User should see message that "Please fill out this field"</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Verify password show button</t>
+  </si>
+  <si>
+    <t>1]Enter Password
+2]Click on Show button</t>
+  </si>
+  <si>
+    <t>User should see his written password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1]Enter Invalid email
+2]Enter valid password
+3]Click "Sign In":
+</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>1]Enter invalid email 
+2]Enter valid password</t>
+  </si>
+  <si>
+    <t>User should see warning message that "Please include an '@' in email adderess"</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Verify login with blank email entered</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Verify login with blank password entered</t>
+  </si>
+  <si>
+    <t>1]Leave blank email
+2]Enter valid password</t>
+  </si>
+  <si>
+    <t>Email:testgmail.com
+Password:</t>
+  </si>
+  <si>
+    <t>Email:
+Password:PrestaShop@123</t>
+  </si>
+  <si>
+    <t>Email:testgmail.com
+Password:PrestaShop@123</t>
+  </si>
+  <si>
+    <t>User should see warning message :Please fill out this field"</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>1]Enter 200 character in  email 
+2]Enter valid password</t>
+  </si>
+  <si>
+    <t>User should see warning message that :more than 200 character is not wrong"</t>
+  </si>
+  <si>
+    <t>User didn’t see any kind of warning on character in email field</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>1]Enter valid email 
+2]Enter 200 character  password</t>
+  </si>
+  <si>
+    <t>User should see warning message that :user should add password between 8 and 72 character"</t>
+  </si>
+  <si>
+    <t>User didn’t see any kind of warning on character in password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1]Leave blank  email
+2]Leave blank  password
+3]Click "Sign In:
+</t>
+  </si>
+  <si>
+    <t>Verify password input is masked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1]Enter 200 character  password</t>
+  </si>
+  <si>
+    <t>User should see password characters should appear as dots or asterisks</t>
+  </si>
+  <si>
+    <t>TC0012</t>
+  </si>
+  <si>
+    <t>1]Enter valid email 
+2]Click on tab button on keyword.
+3]Enter password</t>
+  </si>
+  <si>
+    <t>User should see after clicking tab button cursor should move to password field, then to Sign In button</t>
+  </si>
+  <si>
+    <t>TC0013</t>
+  </si>
+  <si>
+    <t>Verify login form resets when page is refreshed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1]Enter valid email 
+2]Enter password
+3]Click on refresh </t>
+  </si>
+  <si>
+    <t>User should see after clicking refresh button email and password is cleared.</t>
+  </si>
+  <si>
+    <t>Verify login with blank email and password</t>
+  </si>
+  <si>
+    <t>Verify login with invalid email format</t>
+  </si>
+  <si>
+    <t>Verify  max character limit in password field</t>
+  </si>
+  <si>
+    <t>Veirfy max character limit in email field</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>Verify tab key navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	To validate that the user is able to log in successfully with valid email and password</t>
+  </si>
+  <si>
+    <t>To ensure the system displays an error when an incorrect email is entered with a valid password.</t>
+  </si>
+  <si>
+    <t>To verify that login fails with an incorrect password and valid email.</t>
+  </si>
+  <si>
+    <t>To confirm that login is restricted when both fields are left blank.</t>
+  </si>
+  <si>
+    <t>To ensure that the password can be shown or hidden using the show/hide toggle button.</t>
+  </si>
+  <si>
+    <t>To verify that the system shows a validation error for emails missing required formatting (e.g., missing '@').</t>
+  </si>
+  <si>
+    <t>To check that login is restricted when the email field is left blank.</t>
+  </si>
+  <si>
+    <t>To ensure the system does not allow login when the password field is left blank.</t>
+  </si>
+  <si>
+    <t>To verify that the email field handles overly long inputs correctly (e.g., 200+ characters).</t>
+  </si>
+  <si>
+    <t>To ensure that the password field restricts or handles excessive input properly.</t>
+  </si>
+  <si>
+    <t>To confirm that the password input is hidden (masked) by default for security.</t>
+  </si>
+  <si>
+    <t>To check that pressing the Tab key navigates through the login form fields in the correct order.</t>
+  </si>
+  <si>
+    <t>To ensure that refreshing the page clears any previously entered data in the login form.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,16 +325,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -322,17 +360,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,318 +733,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="1" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5546875" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="29.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="29.25">
-      <c r="A4" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="29.25">
-      <c r="A7" t="s">
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="H7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="29.25">
-      <c r="A9" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29.25">
-      <c r="A10" t="s">
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.5">
-      <c r="A11" t="s">
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29.25">
-      <c r="A12" t="s">
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29.25">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="H12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="29.25">
-      <c r="A15" t="s">
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="H13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="29.25">
-      <c r="A16" t="s">
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29.25">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29.25">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29.25">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.25">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29.25">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="H14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCasesForPrestaShop.xlsx
+++ b/TestCasesForPrestaShop.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\PrestaShop-Manual-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A5AEFB-CC8E-4BEB-84E5-200C97C179F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5EB9FC-249B-43DF-98C4-11612FADFBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Module" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="325">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -303,6 +304,757 @@
   </si>
   <si>
     <t>To ensure that refreshing the page clears any previously entered data in the login form.</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Verify that the Create Account form opens</t>
+  </si>
+  <si>
+    <t>To ensure that clicking 'No account? Create one here' opens the user registration form.</t>
+  </si>
+  <si>
+    <t>1. Click on 'No account? Create one here'</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>User should see the create account form</t>
+  </si>
+  <si>
+    <t>User sees the create account form</t>
+  </si>
+  <si>
+    <t>Verify that user can select Social Title options</t>
+  </si>
+  <si>
+    <t>User is on the Create an Account page</t>
+  </si>
+  <si>
+    <t>To verify that both 'Mr.' and 'Mrs.' options in the Social Title checkbox are selectable.</t>
+  </si>
+  <si>
+    <t>1. Click on Social Title checkbox 'Mr'2. Click on checkbox 'Mrs'</t>
+  </si>
+  <si>
+    <t>User should be able to select a checkbox</t>
+  </si>
+  <si>
+    <t>User was able to select checkboxes</t>
+  </si>
+  <si>
+    <t>Verify First Name accepts valid alphabetic input</t>
+  </si>
+  <si>
+    <t>To confirm that the First Name field accepts valid alphabetic values.</t>
+  </si>
+  <si>
+    <t>1. Enter a valid First Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>First Name: Mahesh</t>
+  </si>
+  <si>
+    <t>User should be registered successfully</t>
+  </si>
+  <si>
+    <t>User was registered successfully</t>
+  </si>
+  <si>
+    <t>Verify First Name field rejects alphanumeric input</t>
+  </si>
+  <si>
+    <t>To validate that the First Name field shows an error when alphanumeric input is entered.</t>
+  </si>
+  <si>
+    <t>1. Enter alphanumeric First Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>First Name: Mahesh123</t>
+  </si>
+  <si>
+    <t>Error message like "Invalid format" should display</t>
+  </si>
+  <si>
+    <t>Error message "Invalid format" displayed</t>
+  </si>
+  <si>
+    <t>Verify First Name field rejects numeric input</t>
+  </si>
+  <si>
+    <t>To check that entering only numbers is not allowed in the First Name field.</t>
+  </si>
+  <si>
+    <t>1. Enter numeric First Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>First Name: 124456</t>
+  </si>
+  <si>
+    <t>Verify First Name field rejects special characters and numbers</t>
+  </si>
+  <si>
+    <t>To confirm that special characters and numbers are not accepted in the First Name field.</t>
+  </si>
+  <si>
+    <t>1. Enter First Name with special characters2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>First Name: Mahesh@234</t>
+  </si>
+  <si>
+    <t>Verify validation when First Name is left blank</t>
+  </si>
+  <si>
+    <t>To verify that the system prompts an error when the First Name field is empty.</t>
+  </si>
+  <si>
+    <t>1. Leave First Name blank2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>First Name: (blank)</t>
+  </si>
+  <si>
+    <t>System should show "Please fill out this field"</t>
+  </si>
+  <si>
+    <t>Warning message displayed</t>
+  </si>
+  <si>
+    <t>Verify minimum length enforcement in First Name</t>
+  </si>
+  <si>
+    <t>To ensure the First Name field allows at least the minimum required characters.</t>
+  </si>
+  <si>
+    <t>1. Enter a one-character First Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>First Name: M</t>
+  </si>
+  <si>
+    <t>Form should be submitted successfully (if allowed)</t>
+  </si>
+  <si>
+    <t>Form submitted successfully</t>
+  </si>
+  <si>
+    <t>Verify maximum length enforcement in First Name</t>
+  </si>
+  <si>
+    <t>To confirm that the First Name field enforces a maximum character limit.</t>
+  </si>
+  <si>
+    <t>1. Enter 60+ characters in First Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>First Name: (60+ characters)</t>
+  </si>
+  <si>
+    <t>System should restrict input or show a warning</t>
+  </si>
+  <si>
+    <t>System accepted more than 60 characters</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>To confirm that the Last Name field accepts valid alphabetic values.</t>
+  </si>
+  <si>
+    <t>1. Enter a valid Last Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>First Name: Mankar</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Verify Last Name field rejects alphanumeric input</t>
+  </si>
+  <si>
+    <t>To validate that the Last Name field shows an error when alphanumeric input is entered.</t>
+  </si>
+  <si>
+    <t>Verify Last Name accepts +B11:I17valid alphabetic input</t>
+  </si>
+  <si>
+    <t>1. Enter alphanumeric Last Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>Last Name: Mankar</t>
+  </si>
+  <si>
+    <t>Verify Last Name field rejects numeric input</t>
+  </si>
+  <si>
+    <t>1. Enter numeric Last Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>Verify Last Name field rejects special characters and numbers</t>
+  </si>
+  <si>
+    <t>Verify validation when Last Name is left blank</t>
+  </si>
+  <si>
+    <t>Verify minimum length enforcement in Last Name</t>
+  </si>
+  <si>
+    <t>Verify maximum length enforcement in Last Name</t>
+  </si>
+  <si>
+    <t>1. Enter Last Name with special characters2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Leave Last Name blank2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Enter a one-character Last Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Enter 60+ characters in Last Name2. Fill in other required fields3. Click on Save button</t>
+  </si>
+  <si>
+    <t>To ensure the Last Name field allows at least the minimum required characters.</t>
+  </si>
+  <si>
+    <t>To confirm that the Last Name field enforces a maximum character limit.</t>
+  </si>
+  <si>
+    <t>To verify that the system prompts an error when the Last Name field is empty.</t>
+  </si>
+  <si>
+    <t>To confirm that special characters and numbers are not accepted in the Last Name field.</t>
+  </si>
+  <si>
+    <t>To check that entering only numbers is not allowed in the Last Name field.</t>
+  </si>
+  <si>
+    <t>Last Name: M</t>
+  </si>
+  <si>
+    <t>Last Name: (60+ characters)</t>
+  </si>
+  <si>
+    <t>Last Name: (blank)</t>
+  </si>
+  <si>
+    <t>Last Name: 124456</t>
+  </si>
+  <si>
+    <t>Last Name: Mankar@234</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Verify email field with valid input</t>
+  </si>
+  <si>
+    <t>To confirm that the email field is accepting valid input</t>
+  </si>
+  <si>
+    <t>1.Enter  valid email id
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>Email:Test@gmail.com</t>
+  </si>
+  <si>
+    <t>Verify email field without add @ special character</t>
+  </si>
+  <si>
+    <t>1.Enter   email id
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>Email:Testgmail.com</t>
+  </si>
+  <si>
+    <t>User should see warning message that "Please include @ in the email address"</t>
+  </si>
+  <si>
+    <t>Verify email field not accepting other special character rather than @</t>
+  </si>
+  <si>
+    <t>Email:"Test@gmail.com"</t>
+  </si>
+  <si>
+    <t>User should see warning message that "A part followed by '@' should not contain the symbol""</t>
+  </si>
+  <si>
+    <t>User should see warning message that "The email is already used, please choose another one or sign in"</t>
+  </si>
+  <si>
+    <t>Verify maximum length enforcement in email field</t>
+  </si>
+  <si>
+    <t>1.Enter 60+ character  email id
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>Email:60+ email address</t>
+  </si>
+  <si>
+    <t>User should see warning message that "Email address is maximum character"</t>
+  </si>
+  <si>
+    <t>To confirm that the email field is  accepting as less as charcater in email address.</t>
+  </si>
+  <si>
+    <t>1.Enter  shorter email id
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>Email: a@b.com</t>
+  </si>
+  <si>
+    <t>To confirm that the email field is not  accepting blank field .</t>
+  </si>
+  <si>
+    <t>1.Blank  email id
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email:  </t>
+  </si>
+  <si>
+    <t>User should see warning message that "Please fill out this field"</t>
+  </si>
+  <si>
+    <t>1.Enter already registered  email id
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>Verify minimum length enforcement in email field</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify password is accepting alphanumeric </t>
+  </si>
+  <si>
+    <t>To confirm that the password field is accepting alphanumeric</t>
+  </si>
+  <si>
+    <t>1.Enter Password
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>Password:123@3456</t>
+  </si>
+  <si>
+    <t>Verify password is hidden when click on hide button</t>
+  </si>
+  <si>
+    <t>To confirm that the password is hidden when after clicking hide button</t>
+  </si>
+  <si>
+    <t>1.Enter Password
+2.Click on Hide button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should see password is masked </t>
+  </si>
+  <si>
+    <t>Verify password is accepting between 8 and 72 characters</t>
+  </si>
+  <si>
+    <t>To confirm that the password is accepting characters between 8 and 72.</t>
+  </si>
+  <si>
+    <t>1.Enter Password  
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>Verify password is accepting  8  characters</t>
+  </si>
+  <si>
+    <t>Verify password is accepting  72  characters</t>
+  </si>
+  <si>
+    <t>Verify password is accepting  7  characters</t>
+  </si>
+  <si>
+    <t>Verify password is accepting 73  characters</t>
+  </si>
+  <si>
+    <t>To confirm that the password is accepting exact 8 characters.</t>
+  </si>
+  <si>
+    <t>To confirm that the password is accepting exact 7 characters.</t>
+  </si>
+  <si>
+    <t>To confirm that the password is accepting exact 73characters.</t>
+  </si>
+  <si>
+    <t>To confirm that the password is accepting exact 72 characters.</t>
+  </si>
+  <si>
+    <t>User should see warning message that "Password must be between 8 and 72 characters long"</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Verify that birthdate is accepting date format like "Month/Date/Year"</t>
+  </si>
+  <si>
+    <t>To confirm that Birthdate is accepting date like "Month/Date/Year"</t>
+  </si>
+  <si>
+    <t>1.Enter Birthdate
+2.Fill in other required field
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>Birthdate:07/26/1998</t>
+  </si>
+  <si>
+    <t>Verify birthdate accepting other alphanumeric numbers or any other format</t>
+  </si>
+  <si>
+    <t>Birthdate:1234556</t>
+  </si>
+  <si>
+    <t>User should see warning message that "Format should be 05/31/1970"</t>
+  </si>
+  <si>
+    <t>To confirm that Birthdate is not  accepting date like "Year/Date/Month" or alphanumeric</t>
+  </si>
+  <si>
+    <t>Birthdate:</t>
+  </si>
+  <si>
+    <t>Verify birthdate field  accepting blank field</t>
+  </si>
+  <si>
+    <t>To confirm that Birthdate field is  accepting blank field</t>
+  </si>
+  <si>
+    <t>To confirm that the email field rejects email address without adding @ Special character</t>
+  </si>
+  <si>
+    <t>To confirm that the email field rejects other special charater unless its @</t>
+  </si>
+  <si>
+    <t>Verify email field rejects already registred email address</t>
+  </si>
+  <si>
+    <t>To confirm that the email field rejects already registred email address.</t>
+  </si>
+  <si>
+    <t>To confirm that the email field rejects 60+ character in email address.</t>
+  </si>
+  <si>
+    <t>Verify email field rejects blank field</t>
+  </si>
+  <si>
+    <t>Birthdate:todays date</t>
+  </si>
+  <si>
+    <t>User should see warning message that "date should not be todays date"</t>
+  </si>
+  <si>
+    <t>Birthdate:Future date</t>
+  </si>
+  <si>
+    <t>User should see warning message that "date should not be future date"</t>
+  </si>
+  <si>
+    <t>Verify birthdate field  rejects  future date</t>
+  </si>
+  <si>
+    <t>Verify birthdate field  rejects  todays date</t>
+  </si>
+  <si>
+    <t>To confirm that Birthdate field is  rejects todays date</t>
+  </si>
+  <si>
+    <t>To confirm that Birthdate field is  rejects future date</t>
+  </si>
+  <si>
+    <t>User should see warning message that "Format should be 05/31/1970"(acceptable)</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Verify "Receive offers from our partners" checkbox is optional</t>
+  </si>
+  <si>
+    <t>To verify that registration can proceed without checking this box.</t>
+  </si>
+  <si>
+    <t>1. Leave the "Receive offers" box unchecked</t>
+  </si>
+  <si>
+    <t>2. Fill in required fields</t>
+  </si>
+  <si>
+    <t>3. Click on Save</t>
+  </si>
+  <si>
+    <t>Offers box: Unchecked</t>
+  </si>
+  <si>
+    <t>Verify "Receive offers from our partners" checkbox is selectable</t>
+  </si>
+  <si>
+    <t>To confirm that the checkbox can be checked and unchecked.</t>
+  </si>
+  <si>
+    <t>1. Click on "Receive offers from our partners"</t>
+  </si>
+  <si>
+    <t>2. Verify it's selected</t>
+  </si>
+  <si>
+    <t>3. Click again to deselect</t>
+  </si>
+  <si>
+    <t>Offers box: Checked/Unchecked</t>
+  </si>
+  <si>
+    <t>Checkbox should toggle correctly</t>
+  </si>
+  <si>
+    <t>Checkbox toggled correctly</t>
+  </si>
+  <si>
+    <t>Verify "I agree to the terms and conditions" is mandatory</t>
+  </si>
+  <si>
+    <t>To ensure that the registration cannot proceed without agreeing to terms and privacy policy.</t>
+  </si>
+  <si>
+    <t>1. Leave T&amp;C box unchecked</t>
+  </si>
+  <si>
+    <t>2. Fill other fields</t>
+  </si>
+  <si>
+    <t>T&amp;C box: Unchecked</t>
+  </si>
+  <si>
+    <t>User should see error: "You must agree to the terms"</t>
+  </si>
+  <si>
+    <t>Error message displayed</t>
+  </si>
+  <si>
+    <t>Verify successful registration when "I agree to the terms and conditions" is checked</t>
+  </si>
+  <si>
+    <t>To verify that form submission succeeds when terms checkbox is selected.</t>
+  </si>
+  <si>
+    <t>1. Check T&amp;C box</t>
+  </si>
+  <si>
+    <t>2. Fill required fields</t>
+  </si>
+  <si>
+    <t>3. Click Save</t>
+  </si>
+  <si>
+    <t>T&amp;C box: Checked</t>
+  </si>
+  <si>
+    <t>Verify "Sign up for our newsletter" checkbox is optional</t>
+  </si>
+  <si>
+    <t>To confirm that the newsletter subscription checkbox is not mandatory.</t>
+  </si>
+  <si>
+    <t>1. Leave newsletter box unchecked</t>
+  </si>
+  <si>
+    <t>Newsletter box: Unchecked</t>
+  </si>
+  <si>
+    <t>Verify newsletter checkbox can be checked/unchecked</t>
+  </si>
+  <si>
+    <t>To ensure that the checkbox for newsletter toggles properly.</t>
+  </si>
+  <si>
+    <t>1. Click to select newsletter box</t>
+  </si>
+  <si>
+    <t>2. Click again to deselect</t>
+  </si>
+  <si>
+    <t>Newsletter box: Toggle</t>
+  </si>
+  <si>
+    <t>Verify "Customer data privacy" checkbox is mandatory</t>
+  </si>
+  <si>
+    <t>To ensure that users cannot register without agreeing to the data privacy clause.</t>
+  </si>
+  <si>
+    <t>1. Leave this checkbox unchecked</t>
+  </si>
+  <si>
+    <t>Data privacy box: Unchecked</t>
+  </si>
+  <si>
+    <t>User should see error like "You must agree to the customer data privacy"</t>
+  </si>
+  <si>
+    <t>Verify registration when "Customer data privacy" is checked</t>
+  </si>
+  <si>
+    <t>To confirm successful registration when this mandatory checkbox is checked.</t>
+  </si>
+  <si>
+    <t>1. Select the customer privacy checkbox</t>
+  </si>
+  <si>
+    <t>Data privacy box: Checked</t>
   </si>
 </sst>
 </file>
@@ -332,7 +1084,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +1103,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -375,11 +1133,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -398,6 +1211,85 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,9 +1637,10 @@
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.5546875" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1009,7 +1902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -1036,7 +1929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1063,7 +1956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -1090,7 +1983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -1117,7 +2010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -1151,4 +2044,1634 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68211BB-141A-4207-B0C7-A951DCB959AB}">
+  <dimension ref="A1:I65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+    </row>
+    <row r="58" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="I58" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I63" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>